--- a/backup/TableExport/Navigation List 24Aug2021.xlsx
+++ b/backup/TableExport/Navigation List 24Aug2021.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaijukumarkappillilbalakrishnan/Git/AppWeb/backup/TableExport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6FE9C1FA-AE19-EC42-B821-2BFE5413F9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE0FF6D7-D5F5-0C4D-82B4-E4EAED00C3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="3080" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="840" yWindow="540" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation List 23Aug2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="38" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="10" uniqueCount="10">
   <si>
     <t>Order</t>
   </si>
@@ -45,73 +45,7 @@
     <t>UserAccessRoles1</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>/UserProfile</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>5fc020d1-4729-4bda-a2ae-1d4b3ca56c20</t>
-  </si>
-  <si>
-    <t>User List</t>
-  </si>
-  <si>
-    <t>/userlist</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
     <t>20d5ceb9-36bb-4607-a98b-3dc8db9d4910</t>
-  </si>
-  <si>
-    <t>User Roles</t>
-  </si>
-  <si>
-    <t>/AppUserRoleMasterList</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>/AppTableMasterList</t>
-  </si>
-  <si>
-    <t>view_column</t>
-  </si>
-  <si>
-    <t>Config List</t>
-  </si>
-  <si>
-    <t>/AppConfigTypeList</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>Navigation List</t>
-  </si>
-  <si>
-    <t>/Navigationlist</t>
-  </si>
-  <si>
-    <t>bookmark</t>
-  </si>
-  <si>
-    <t>Admin Page</t>
-  </si>
-  <si>
-    <t>/AppAdminPage</t>
-  </si>
-  <si>
-    <t>settings_suggest</t>
   </si>
   <si>
     <t>Test</t>
@@ -126,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -960,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,162 +931,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
